--- a/farmServer/src/main/resources/config/Craft.xlsx
+++ b/farmServer/src/main/resources/config/Craft.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>ItemID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,35 @@
   </si>
   <si>
     <t>农田示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002_1|1001_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,13 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -468,6 +500,98 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>201</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>90</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3">
+        <v>701</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>90</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4">
+        <v>601</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>180</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5">
+        <v>702</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>360</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -480,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
